--- a/data/trans_orig/P36B13-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>141607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121107</v>
+        <v>121473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162815</v>
+        <v>161924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3315208923467879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2835288915984645</v>
+        <v>0.2843843761681427</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3811729392781938</v>
+        <v>0.3790862128479008</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -763,19 +763,19 @@
         <v>102070</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86309</v>
+        <v>86034</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121704</v>
+        <v>120527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2960864669679286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2503674169896418</v>
+        <v>0.2495677012279649</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3530390828664519</v>
+        <v>0.3496258143772318</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>221</v>
@@ -784,19 +784,19 @@
         <v>243677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>216501</v>
+        <v>217643</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273505</v>
+        <v>272639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3156953030050579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2804879545903328</v>
+        <v>0.2819675727570083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3543395369092392</v>
+        <v>0.3532163855761892</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>133785</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114682</v>
+        <v>114194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154308</v>
+        <v>157288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3132089731784987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2684860315277876</v>
+        <v>0.2673435990279041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3612559424571014</v>
+        <v>0.3682325162913014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -834,19 +834,19 @@
         <v>123681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106442</v>
+        <v>105322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143465</v>
+        <v>142707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3587765016979425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3087690866737919</v>
+        <v>0.305518365310812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4161654931757108</v>
+        <v>0.4139669845998991</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -855,19 +855,19 @@
         <v>257466</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>228390</v>
+        <v>229813</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>283914</v>
+        <v>283282</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.333560170804989</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2958897243683618</v>
+        <v>0.2977344297480667</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3678242929116433</v>
+        <v>0.3670054359378277</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>125567</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>108700</v>
+        <v>106325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148337</v>
+        <v>146776</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2939685702639606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2544805120667848</v>
+        <v>0.2489214982112444</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3472775371821854</v>
+        <v>0.3436224822938995</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>103</v>
@@ -905,19 +905,19 @@
         <v>103361</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87046</v>
+        <v>87982</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119485</v>
+        <v>123968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2998298331495508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2525041128293199</v>
+        <v>0.2552202698837061</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3466036156060956</v>
+        <v>0.359606832243595</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>220</v>
@@ -926,19 +926,19 @@
         <v>228927</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>201842</v>
+        <v>205536</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>253398</v>
+        <v>258912</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2965863053749302</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2614955091436612</v>
+        <v>0.2662815882003217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3282892238942791</v>
+        <v>0.3354323475908316</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>23098</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15076</v>
+        <v>15058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33767</v>
+        <v>33899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05407536383269817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03529497228440068</v>
+        <v>0.03525306866589021</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07905301406532185</v>
+        <v>0.07936156221290371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -976,19 +976,19 @@
         <v>13720</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8067</v>
+        <v>7790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22291</v>
+        <v>21839</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03979956523598092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02340173464490535</v>
+        <v>0.02259783959094087</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06466275804785078</v>
+        <v>0.0633500622237524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -997,19 +997,19 @@
         <v>36818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26021</v>
+        <v>26835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51119</v>
+        <v>49582</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04769956053685351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03371176665320891</v>
+        <v>0.03476545477849603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06622764081633983</v>
+        <v>0.06423638761366571</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>3087</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8389</v>
+        <v>8178</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007226200378054627</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002294820611141421</v>
+        <v>0.002283708003349049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01963928058615089</v>
+        <v>0.01914626980730087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6551</v>
+        <v>5732</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005507632948597229</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01900461995491589</v>
+        <v>0.01662686385186734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1068,19 +1068,19 @@
         <v>4985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1955</v>
+        <v>1910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11277</v>
+        <v>11206</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006458660278169399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002533184248143568</v>
+        <v>0.002474938049569711</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01460999961643816</v>
+        <v>0.01451780991198388</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>98803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81101</v>
+        <v>82917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117538</v>
+        <v>118427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2647094260679514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2172835558234453</v>
+        <v>0.2221471969801665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3149038036994413</v>
+        <v>0.3172853862465201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -1193,19 +1193,19 @@
         <v>76010</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61070</v>
+        <v>59752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>92711</v>
+        <v>93510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2059963922725861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1655056897319996</v>
+        <v>0.1619340317285949</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.25125775970436</v>
+        <v>0.2534226231940112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>163</v>
@@ -1214,19 +1214,19 @@
         <v>174813</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151427</v>
+        <v>153770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199856</v>
+        <v>201213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2355214676092741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2040141032175815</v>
+        <v>0.2071706516365216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2692610966338728</v>
+        <v>0.2710888643063555</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>115045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98633</v>
+        <v>97521</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134040</v>
+        <v>134105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3082243169551284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2642527637061927</v>
+        <v>0.2612744120404548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3591152178245309</v>
+        <v>0.3592895836875716</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1264,19 +1264,19 @@
         <v>142792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125034</v>
+        <v>124483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162049</v>
+        <v>162032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3869815420123719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3388552556432279</v>
+        <v>0.337363278864262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4391707229810838</v>
+        <v>0.4391250548877705</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -1285,19 +1285,19 @@
         <v>257837</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>232017</v>
+        <v>231319</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281854</v>
+        <v>283979</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3473768264524827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3125909367848372</v>
+        <v>0.3116499747902513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.379734643354975</v>
+        <v>0.3825968353670215</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>124855</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106803</v>
+        <v>105286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143499</v>
+        <v>143210</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3345055064147239</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2861423136726751</v>
+        <v>0.2820786479810899</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3844582433156803</v>
+        <v>0.3836817531989369</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1335,19 +1335,19 @@
         <v>119730</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101826</v>
+        <v>102078</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138958</v>
+        <v>139633</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3244816321101229</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2759592601181334</v>
+        <v>0.2766424564507305</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3765908262461928</v>
+        <v>0.3784196926594794</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -1356,19 +1356,19 @@
         <v>244585</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>218459</v>
+        <v>218810</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>270046</v>
+        <v>272816</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3295223466649241</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2943236853212584</v>
+        <v>0.2947968673209904</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3638260128466809</v>
+        <v>0.3675572995625938</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>31606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22603</v>
+        <v>22251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43634</v>
+        <v>44257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08467777040937191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06055790423277768</v>
+        <v>0.0596146427050787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.116901648473144</v>
+        <v>0.1185711240062454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -1406,19 +1406,19 @@
         <v>26557</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17983</v>
+        <v>17811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37706</v>
+        <v>37314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07197317884779281</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04873650580353144</v>
+        <v>0.04826927774679626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1021878928413386</v>
+        <v>0.1011239746302987</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1427,19 +1427,19 @@
         <v>58163</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43530</v>
+        <v>44605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74574</v>
+        <v>75139</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0783619480652861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05864744420905576</v>
+        <v>0.0600950478394202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1004721722249782</v>
+        <v>0.1012332633569358</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>2942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8230</v>
+        <v>9019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007882980152824482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002300455460171647</v>
+        <v>0.002325063663727915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02205028434117504</v>
+        <v>0.02416430607993922</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1477,19 +1477,19 @@
         <v>3899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>955</v>
+        <v>1069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9088</v>
+        <v>9814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01056725475712623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002587212244002411</v>
+        <v>0.002896565711457895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02462827627410993</v>
+        <v>0.02659744395652747</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -1498,19 +1498,19 @@
         <v>6842</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2822</v>
+        <v>2973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13255</v>
+        <v>13669</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009217411208032987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003802495888260787</v>
+        <v>0.004005957981995515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01785839424105101</v>
+        <v>0.01841527614651089</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>158851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139254</v>
+        <v>137667</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182511</v>
+        <v>180006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072143944399905</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2693134471707383</v>
+        <v>0.2662443672921235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3529726030609384</v>
+        <v>0.3481282258247377</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -1623,19 +1623,19 @@
         <v>67382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52929</v>
+        <v>53818</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79754</v>
+        <v>80609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4077748935894672</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3203136310849062</v>
+        <v>0.3256931228037512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4826481621973202</v>
+        <v>0.4878267771497402</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>214</v>
@@ -1644,19 +1644,19 @@
         <v>226232</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>202368</v>
+        <v>202560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>252700</v>
+        <v>251745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3315681243361347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2965923273358831</v>
+        <v>0.2968735704046958</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.370359793762588</v>
+        <v>0.3689592368287119</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>141456</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121752</v>
+        <v>120741</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164410</v>
+        <v>163618</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2735719779146003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.235465497406675</v>
+        <v>0.2335102195462003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3179648473634681</v>
+        <v>0.3164327871794812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1694,19 +1694,19 @@
         <v>45882</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35450</v>
+        <v>35195</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58114</v>
+        <v>58030</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2776652173854186</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2145326230513309</v>
+        <v>0.212991591981933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3516901266022804</v>
+        <v>0.3511832081509108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -1715,19 +1715,19 @@
         <v>187337</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>162781</v>
+        <v>163039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>210291</v>
+        <v>212114</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2745632781698265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2385738340414471</v>
+        <v>0.2389510987658413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3082046160437294</v>
+        <v>0.3108761151816992</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>161734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>140144</v>
+        <v>140875</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183801</v>
+        <v>182434</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.312789716251118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2710348093186493</v>
+        <v>0.2724481738910579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3554671658237744</v>
+        <v>0.3528227638648773</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1765,19 +1765,19 @@
         <v>36991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26884</v>
+        <v>26962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48956</v>
+        <v>47775</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2238621088081656</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1626961688044907</v>
+        <v>0.1631658195517407</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2962655449463117</v>
+        <v>0.2891188929533742</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -1786,19 +1786,19 @@
         <v>198725</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176445</v>
+        <v>175367</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>225327</v>
+        <v>224300</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2912532387048321</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2586000696885056</v>
+        <v>0.2570194634660453</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.330241492690184</v>
+        <v>0.3287363434488662</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>48700</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36566</v>
+        <v>35894</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64410</v>
+        <v>63888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09418467156847701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07071785499073355</v>
+        <v>0.06941775353583472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1245681701996814</v>
+        <v>0.1235585662955625</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1836,19 +1836,19 @@
         <v>12178</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7038</v>
+        <v>6440</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20694</v>
+        <v>20915</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07369838514489033</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04259397902236741</v>
+        <v>0.03897165297777883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.125237081077818</v>
+        <v>0.1265694497367108</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1857,19 +1857,19 @@
         <v>60878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48431</v>
+        <v>46458</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76974</v>
+        <v>76092</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08922330512385081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07098109894852903</v>
+        <v>0.06809000164278441</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.112813128246407</v>
+        <v>0.1115215506512032</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>6329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2889</v>
+        <v>2658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13016</v>
+        <v>12662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0122392398258142</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005586467132662411</v>
+        <v>0.005140446254681615</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02517191484821945</v>
+        <v>0.0244888508967884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1907,19 +1907,19 @@
         <v>2809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7683</v>
+        <v>8266</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01699939507205838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005392493992402518</v>
+        <v>0.005384836412617961</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04649316196414099</v>
+        <v>0.05002349290934505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1928,19 +1928,19 @@
         <v>9138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4926</v>
+        <v>4522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17418</v>
+        <v>16941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01339205366535596</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007219971805153714</v>
+        <v>0.006626784549265439</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02552845671065208</v>
+        <v>0.02482885340672792</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>333444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>303448</v>
+        <v>304948</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>366123</v>
+        <v>365071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2911001371111481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2649138901666206</v>
+        <v>0.2662229008750827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3196298492613888</v>
+        <v>0.3187110628768119</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>211</v>
@@ -2053,19 +2053,19 @@
         <v>231452</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>206819</v>
+        <v>204868</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>259030</v>
+        <v>259564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2812136516073139</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2512852088041093</v>
+        <v>0.2489143334051722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3147206118094286</v>
+        <v>0.3153694426911542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>536</v>
@@ -2074,19 +2074,19 @@
         <v>564895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>527096</v>
+        <v>523716</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>606149</v>
+        <v>604607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2869665285457131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2677646043602646</v>
+        <v>0.2660475835855444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3079233331790127</v>
+        <v>0.3071402728588611</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>353157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>324049</v>
+        <v>318807</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>386247</v>
+        <v>383203</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3083104202551883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2828984001017082</v>
+        <v>0.2783219483697955</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3371983654109</v>
+        <v>0.334540508524914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>240</v>
@@ -2124,19 +2124,19 @@
         <v>244442</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>220186</v>
+        <v>216784</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>272103</v>
+        <v>272682</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2969969767063493</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2675251524838387</v>
+        <v>0.2633919756414025</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3306045921705797</v>
+        <v>0.3313079320398122</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>577</v>
@@ -2145,19 +2145,19 @@
         <v>597599</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>554052</v>
+        <v>560175</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>640099</v>
+        <v>640050</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3035801905755</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2814580163653868</v>
+        <v>0.2845686150295936</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3251698623717124</v>
+        <v>0.3251450353980986</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>316451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>288270</v>
+        <v>287172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>352535</v>
+        <v>347524</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2762657880556548</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2516631569632671</v>
+        <v>0.250704298376056</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3077672371632838</v>
+        <v>0.3033927724041339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>252</v>
@@ -2195,19 +2195,19 @@
         <v>254535</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>229027</v>
+        <v>228066</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>281553</v>
+        <v>282185</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.309259699214099</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2782670756853902</v>
+        <v>0.2770997534712298</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.342087156822447</v>
+        <v>0.3428546728156314</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>550</v>
@@ -2216,19 +2216,19 @@
         <v>570986</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>529619</v>
+        <v>527933</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>607927</v>
+        <v>610127</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2900607725037534</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2690460514901324</v>
+        <v>0.2681897226990074</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3088266232683066</v>
+        <v>0.3099440865939614</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>127139</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106820</v>
+        <v>109180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146918</v>
+        <v>150252</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1109938527332147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09325530176373695</v>
+        <v>0.09531528719518792</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1282612078493401</v>
+        <v>0.1311715604820421</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>81</v>
@@ -2266,19 +2266,19 @@
         <v>81616</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67134</v>
+        <v>66266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100883</v>
+        <v>100487</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09916346367844037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08156784145843404</v>
+        <v>0.08051319709226501</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.122573053062675</v>
+        <v>0.1220911126883285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -2287,19 +2287,19 @@
         <v>208755</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>180636</v>
+        <v>184644</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237724</v>
+        <v>235037</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1060474845308562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09176278342209689</v>
+        <v>0.09379891295854138</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1207634568719417</v>
+        <v>0.1193985723531002</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>15269</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8849</v>
+        <v>8585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27597</v>
+        <v>24751</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0133298018447941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007725315440998594</v>
+        <v>0.007494457159996843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0240928570708128</v>
+        <v>0.02160812172484467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2337,19 +2337,19 @@
         <v>11001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5670</v>
+        <v>6086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18673</v>
+        <v>19357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01336620879379746</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00688960523421264</v>
+        <v>0.007395018670467069</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02268815361069671</v>
+        <v>0.02351896429466973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2358,19 +2358,19 @@
         <v>26270</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17300</v>
+        <v>18037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38954</v>
+        <v>38787</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01334502384417733</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008788611991239014</v>
+        <v>0.009162637395757853</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01978878404278487</v>
+        <v>0.01970376810254747</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>188791</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>167451</v>
+        <v>166084</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>212556</v>
+        <v>210823</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3069422768128738</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2722465728389051</v>
+        <v>0.2700239134903303</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3455798100120015</v>
+        <v>0.3427630609982683</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>242</v>
@@ -2483,19 +2483,19 @@
         <v>264328</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>236648</v>
+        <v>238784</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>290811</v>
+        <v>292472</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.359147328247739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3215376336849323</v>
+        <v>0.3244406326336383</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3951301567123235</v>
+        <v>0.3973864577329773</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>431</v>
@@ -2504,19 +2504,19 @@
         <v>453119</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>417820</v>
+        <v>418237</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>488723</v>
+        <v>488175</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3353809416895809</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.309253946975421</v>
+        <v>0.3095623398427343</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3617337075293682</v>
+        <v>0.3613276593270754</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>174628</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>152227</v>
+        <v>153183</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>196001</v>
+        <v>200410</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2839149855894414</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2474957606866643</v>
+        <v>0.2490503137900483</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.318665140052152</v>
+        <v>0.3258320402992689</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>216</v>
@@ -2554,19 +2554,19 @@
         <v>226056</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>200668</v>
+        <v>201332</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>251201</v>
+        <v>250129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3071466902198952</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2726518592936879</v>
+        <v>0.2735531877250112</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.341311086482272</v>
+        <v>0.3398543118453172</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>385</v>
@@ -2575,19 +2575,19 @@
         <v>400684</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>366234</v>
+        <v>368644</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>436516</v>
+        <v>437317</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2965704402694244</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2710722060790578</v>
+        <v>0.2728560635869637</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3230920818943605</v>
+        <v>0.3236848614081262</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>159071</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>135679</v>
+        <v>138129</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>181856</v>
+        <v>183071</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2586228294470092</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.220591885312529</v>
+        <v>0.2245746937265348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2956668194240409</v>
+        <v>0.2976425991792193</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>187</v>
@@ -2625,19 +2625,19 @@
         <v>191590</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>169178</v>
+        <v>169512</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>215942</v>
+        <v>216884</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2603166800403557</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2298647874299465</v>
+        <v>0.2303194616957026</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2934037558286876</v>
+        <v>0.2946841142605653</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>334</v>
@@ -2646,19 +2646,19 @@
         <v>350661</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>319859</v>
+        <v>318021</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>385154</v>
+        <v>382872</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2595455533607189</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2367469202419962</v>
+        <v>0.2353866014318207</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2850758127582</v>
+        <v>0.2833865716933497</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>80540</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>64719</v>
+        <v>63700</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>98777</v>
+        <v>99185</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1309442261728491</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1052213834218747</v>
+        <v>0.1035648667871731</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1605949930868732</v>
+        <v>0.1612580711723144</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>50</v>
@@ -2696,19 +2696,19 @@
         <v>51996</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>38607</v>
+        <v>39143</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>66689</v>
+        <v>66262</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07064844708619239</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05245613792000531</v>
+        <v>0.05318433900546561</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09061151814668769</v>
+        <v>0.09003074865647777</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>125</v>
@@ -2717,19 +2717,19 @@
         <v>132536</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>109580</v>
+        <v>112217</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>153791</v>
+        <v>157346</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09809814312541042</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08110670761909604</v>
+        <v>0.0830584138803684</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1138300340829018</v>
+        <v>0.1164616519937186</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>12040</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6013</v>
+        <v>6034</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>20333</v>
+        <v>21053</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01957568197782643</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.009775968661279905</v>
+        <v>0.009810948892945761</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03305742171972766</v>
+        <v>0.03422909463561534</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6568</v>
+        <v>7105</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002740854405817615</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00892396157551551</v>
+        <v>0.009653874616029351</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2788,19 +2788,19 @@
         <v>14058</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7991</v>
+        <v>7963</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22623</v>
+        <v>23067</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01040492155486542</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005914424802440275</v>
+        <v>0.005894058017419385</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01674496529303523</v>
+        <v>0.01707338966661421</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>27454</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17790</v>
+        <v>18211</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39697</v>
+        <v>39956</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0956101100067626</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06195590423764991</v>
+        <v>0.06342040031688503</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1382479353587163</v>
+        <v>0.1391494421552241</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>405</v>
@@ -2913,19 +2913,19 @@
         <v>462439</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>429751</v>
+        <v>425924</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>495136</v>
+        <v>496538</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4321044650009475</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4015601941499178</v>
+        <v>0.3979840503513297</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4626562708562446</v>
+        <v>0.4639663141815586</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>429</v>
@@ -2934,19 +2934,19 @@
         <v>489893</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>455017</v>
+        <v>453096</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>528196</v>
+        <v>526649</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3609195470192025</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3352252794710614</v>
+        <v>0.3338100383266355</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3891379343087172</v>
+        <v>0.3879985042472757</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>71037</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>56798</v>
+        <v>57326</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>86599</v>
+        <v>86764</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2473893709647277</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1978021789710777</v>
+        <v>0.1996400082051218</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3015852559172312</v>
+        <v>0.3021618929037466</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>279</v>
@@ -2984,19 +2984,19 @@
         <v>300048</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>269046</v>
+        <v>269052</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>329943</v>
+        <v>330902</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2803658602073393</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2513969851190068</v>
+        <v>0.2514027392413351</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3082998262989082</v>
+        <v>0.3091954621718398</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>346</v>
@@ -3005,19 +3005,19 @@
         <v>371085</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>336115</v>
+        <v>336629</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>405546</v>
+        <v>403507</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2733897292642162</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.24762617168071</v>
+        <v>0.2480050212423891</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2987784071319711</v>
+        <v>0.2972762416531765</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>121600</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>105463</v>
+        <v>105900</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>140037</v>
+        <v>139185</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.423478866277796</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3672807381296037</v>
+        <v>0.3688036730739536</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4876869554804148</v>
+        <v>0.4847216903789333</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>232</v>
@@ -3055,19 +3055,19 @@
         <v>239105</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>211549</v>
+        <v>211000</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>268609</v>
+        <v>265792</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2234203067044251</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1976717409323472</v>
+        <v>0.1971592660559306</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2509890296151334</v>
+        <v>0.2483562256959416</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>347</v>
@@ -3076,19 +3076,19 @@
         <v>360705</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>329756</v>
+        <v>329190</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>391834</v>
+        <v>395655</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2657424198198815</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2429414303950333</v>
+        <v>0.2425240266649544</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.288675999517231</v>
+        <v>0.2914913408924923</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>60142</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47785</v>
+        <v>46273</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75795</v>
+        <v>75479</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2094495779530203</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1664125898898008</v>
+        <v>0.1611498087060254</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2639616623057285</v>
+        <v>0.2628595259090927</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>64</v>
@@ -3126,19 +3126,19 @@
         <v>64447</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>50221</v>
+        <v>51383</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>81267</v>
+        <v>84907</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06021948338382559</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0469264378046838</v>
+        <v>0.04801276538129584</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07593613228538758</v>
+        <v>0.07933747482284864</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>123</v>
@@ -3147,19 +3147,19 @@
         <v>124589</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>106116</v>
+        <v>104542</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>150079</v>
+        <v>147553</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09178890463756326</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07817876975369711</v>
+        <v>0.07701909650504073</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1105675126519248</v>
+        <v>0.1087069161466785</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>6912</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3001</v>
+        <v>2958</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13001</v>
+        <v>13832</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02407207479769347</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01045226460172334</v>
+        <v>0.01030204833331793</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04527839421063827</v>
+        <v>0.04816915508221348</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -3197,19 +3197,19 @@
         <v>4163</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1593</v>
+        <v>895</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12169</v>
+        <v>10602</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.003889884703462506</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001488064912958005</v>
+        <v>0.0008361693279205861</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01137048763134635</v>
+        <v>0.009906967438394001</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>11</v>
@@ -3218,19 +3218,19 @@
         <v>11075</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5782</v>
+        <v>5964</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>20357</v>
+        <v>21577</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008159399259136536</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.004259843943961646</v>
+        <v>0.004393876974612078</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01499789652016729</v>
+        <v>0.01589612905272889</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>948949</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>899504</v>
+        <v>895240</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1005643</v>
+        <v>1002095</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.281994197391984</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2673010030275384</v>
+        <v>0.2660337888563593</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2988416407161674</v>
+        <v>0.2977871707338599</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1074</v>
@@ -3343,19 +3343,19 @@
         <v>1203681</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1143721</v>
+        <v>1148228</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1261082</v>
+        <v>1266935</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3431052427015366</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3260136910706498</v>
+        <v>0.3272982814365795</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3594670904112479</v>
+        <v>0.3611355407778731</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1994</v>
@@ -3364,19 +3364,19 @@
         <v>2152631</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2072069</v>
+        <v>2069789</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2232472</v>
+        <v>2232354</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3131857057338823</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3014648176680901</v>
+        <v>0.3011330865079327</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3248018275876238</v>
+        <v>0.324784634409833</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>989107</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>935494</v>
+        <v>935266</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1041746</v>
+        <v>1047246</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.293927647707392</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2779958957814077</v>
+        <v>0.2779281974462689</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3095700621060811</v>
+        <v>0.3112045788988658</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1032</v>
@@ -3414,19 +3414,19 @@
         <v>1082902</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1027709</v>
+        <v>1026586</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1139719</v>
+        <v>1141394</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3086775133141659</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2929449263373897</v>
+        <v>0.2926247695181029</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3248730339744103</v>
+        <v>0.3253504199982151</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1965</v>
@@ -3435,19 +3435,19 @@
         <v>2072009</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1993361</v>
+        <v>1989531</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2154184</v>
+        <v>2148559</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3014560830955468</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2900135660363345</v>
+        <v>0.2894563452668465</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3134117199554863</v>
+        <v>0.3125932791520522</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>1009277</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>954721</v>
+        <v>954931</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1059510</v>
+        <v>1061363</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2999215472682568</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2837092995987177</v>
+        <v>0.2837717232610024</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3148490291304897</v>
+        <v>0.3153995359061399</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>928</v>
@@ -3485,19 +3485,19 @@
         <v>945312</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>899991</v>
+        <v>895302</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>999080</v>
+        <v>999664</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2694579851116691</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.256539292269517</v>
+        <v>0.2552028050159331</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2847844348056526</v>
+        <v>0.2849507442003907</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1877</v>
@@ -3506,19 +3506,19 @@
         <v>1954589</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1873438</v>
+        <v>1882963</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2023694</v>
+        <v>2032846</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2843727303838792</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2725660472349003</v>
+        <v>0.2739518091023077</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2944267349927939</v>
+        <v>0.2957583346598064</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>371225</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>335360</v>
+        <v>338226</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>408831</v>
+        <v>413984</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.110315025226376</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0996571976667628</v>
+        <v>0.1005087994901535</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1214900156165001</v>
+        <v>0.1230213371755741</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>247</v>
@@ -3556,19 +3556,19 @@
         <v>250515</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>222092</v>
+        <v>223787</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>283571</v>
+        <v>281428</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.07140845818970822</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0633064455764656</v>
+        <v>0.06378958571763239</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08083097269641351</v>
+        <v>0.08022004571155153</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>606</v>
@@ -3577,19 +3577,19 @@
         <v>621740</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>577211</v>
+        <v>575076</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>667049</v>
+        <v>673383</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.09045683913036513</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.08397833551600273</v>
+        <v>0.08366772589881012</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.09704877829789674</v>
+        <v>0.09797026020165521</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>46579</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34957</v>
+        <v>34279</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>61537</v>
+        <v>63300</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01384158240599121</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01038794880798365</v>
+        <v>0.01018651268026492</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01828670451150947</v>
+        <v>0.01881046175203429</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>26</v>
@@ -3627,19 +3627,19 @@
         <v>25788</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>16821</v>
+        <v>16797</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>37748</v>
+        <v>37020</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.007350800682920028</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004794654370381312</v>
+        <v>0.004787932132146844</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01075995070325991</v>
+        <v>0.01055235288156302</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>71</v>
@@ -3648,19 +3648,19 @@
         <v>72367</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>56709</v>
+        <v>55966</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>90379</v>
+        <v>89963</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01052864165632663</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.008250549722157902</v>
+        <v>0.008142465772163779</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01314924930055222</v>
+        <v>0.01308866776588394</v>
       </c>
     </row>
     <row r="45">
@@ -3994,19 +3994,19 @@
         <v>187577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>166289</v>
+        <v>165043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>210346</v>
+        <v>210265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3406656284953124</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3020042040389837</v>
+        <v>0.2997407179215665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3820186642372175</v>
+        <v>0.381871723054955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -4015,19 +4015,19 @@
         <v>167590</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149800</v>
+        <v>150414</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185592</v>
+        <v>187027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3442429732025276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3077002570420283</v>
+        <v>0.3089616093118606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.381221795519821</v>
+        <v>0.3841682121347148</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>464</v>
@@ -4036,19 +4036,19 @@
         <v>355167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>325843</v>
+        <v>325485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>384525</v>
+        <v>383245</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3423443348805376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3140787749647329</v>
+        <v>0.3137343385722697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.370642124370094</v>
+        <v>0.3694090216568074</v>
       </c>
     </row>
     <row r="5">
@@ -4065,19 +4065,19 @@
         <v>227585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202455</v>
+        <v>205701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250960</v>
+        <v>253271</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4133263817544817</v>
+        <v>0.4133263817544818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3676874270757357</v>
+        <v>0.3735817067756123</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4557779922850679</v>
+        <v>0.4599755608821379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -4086,19 +4086,19 @@
         <v>223930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>203211</v>
+        <v>204561</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243038</v>
+        <v>243488</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4599699564563706</v>
+        <v>0.4599699564563705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4174109812710796</v>
+        <v>0.4201838248706203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4992200520009262</v>
+        <v>0.5001440708835085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -4107,19 +4107,19 @@
         <v>451515</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>422171</v>
+        <v>420010</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483202</v>
+        <v>482908</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4352143665840847</v>
+        <v>0.4352143665840849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4069294654769818</v>
+        <v>0.4048468148503224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4657566061735642</v>
+        <v>0.4654735151776776</v>
       </c>
     </row>
     <row r="6">
@@ -4136,19 +4136,19 @@
         <v>106959</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88683</v>
+        <v>87085</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129807</v>
+        <v>129306</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1942535244461813</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1610611707484233</v>
+        <v>0.1581589901455236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2357480745061811</v>
+        <v>0.2348383212889592</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>106</v>
@@ -4157,19 +4157,19 @@
         <v>83353</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68871</v>
+        <v>69025</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99288</v>
+        <v>99502</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1712132161498624</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.141465551595704</v>
+        <v>0.1417821807576179</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2039463679138535</v>
+        <v>0.2043851215078183</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>206</v>
@@ -4178,19 +4178,19 @@
         <v>190312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>167317</v>
+        <v>164352</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>214689</v>
+        <v>217232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1834416190190703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1612768303588586</v>
+        <v>0.158418743048652</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2069382828895951</v>
+        <v>0.2093888800671331</v>
       </c>
     </row>
     <row r="7">
@@ -4207,19 +4207,19 @@
         <v>25045</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14441</v>
+        <v>14727</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35525</v>
+        <v>38963</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04548535402793914</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02622691278988411</v>
+        <v>0.02674623641192592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0645182607667583</v>
+        <v>0.07076186817472592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -4228,19 +4228,19 @@
         <v>9483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4733</v>
+        <v>4871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15768</v>
+        <v>16474</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.01947959164091992</v>
+        <v>0.01947959164091991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009721368381249068</v>
+        <v>0.01000499499393664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03238803979004081</v>
+        <v>0.03383794247955754</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -4249,19 +4249,19 @@
         <v>34528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23946</v>
+        <v>23938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48619</v>
+        <v>48716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0332818782813367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02308147466979975</v>
+        <v>0.02307343671056564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04686349764508928</v>
+        <v>0.04695721789412961</v>
       </c>
     </row>
     <row r="8">
@@ -4278,19 +4278,19 @@
         <v>3452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9247</v>
+        <v>10232</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006269111276085457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002049167981428568</v>
+        <v>0.00202574975895274</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01679413771288574</v>
+        <v>0.01858308868477428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4299,19 +4299,19 @@
         <v>2480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7152</v>
+        <v>6991</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.005094262550319598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001467257773617588</v>
+        <v>0.001473073502527469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01469044266280148</v>
+        <v>0.01435978300811136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4320,19 +4320,19 @@
         <v>5932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2190</v>
+        <v>2370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12650</v>
+        <v>14415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005717801234970613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002111359104254726</v>
+        <v>0.002284739706360559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01219309586964765</v>
+        <v>0.01389428827108361</v>
       </c>
     </row>
     <row r="9">
@@ -4424,19 +4424,19 @@
         <v>123010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105323</v>
+        <v>105661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144014</v>
+        <v>143412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.254567776009719</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.217964851616103</v>
+        <v>0.2186642354930725</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2980345164849206</v>
+        <v>0.296789968222526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -4445,19 +4445,19 @@
         <v>129570</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113129</v>
+        <v>114023</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146061</v>
+        <v>145695</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3074900987101858</v>
+        <v>0.3074900987101857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2684719002514862</v>
+        <v>0.2705947369862605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3466249343545996</v>
+        <v>0.3457577873011092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>347</v>
@@ -4466,19 +4466,19 @@
         <v>252580</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>230369</v>
+        <v>228174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279003</v>
+        <v>275929</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2792202238258624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.254665883014535</v>
+        <v>0.2522394763037804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3084291210920752</v>
+        <v>0.3050311697342296</v>
       </c>
     </row>
     <row r="11">
@@ -4495,19 +4495,19 @@
         <v>222492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201821</v>
+        <v>199954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>248844</v>
+        <v>244833</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4604431203946375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.417664695270472</v>
+        <v>0.4138017656734551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5149784733262684</v>
+        <v>0.5066778220124086</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>260</v>
@@ -4516,19 +4516,19 @@
         <v>187115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169889</v>
+        <v>168985</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>205960</v>
+        <v>204843</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4440531469465492</v>
+        <v>0.4440531469465491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4031730697840953</v>
+        <v>0.4010265103546457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.488774938205076</v>
+        <v>0.4861238967653392</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>470</v>
@@ -4537,19 +4537,19 @@
         <v>409607</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379286</v>
+        <v>381393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>435996</v>
+        <v>438210</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4528082898634106</v>
+        <v>0.4528082898634105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4192898767344747</v>
+        <v>0.4216188952345672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4819808588224407</v>
+        <v>0.4844281447270459</v>
       </c>
     </row>
     <row r="12">
@@ -4566,19 +4566,19 @@
         <v>110734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92905</v>
+        <v>93290</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>131900</v>
+        <v>130868</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2291624700154049</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1922651535824331</v>
+        <v>0.193062517410863</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2729658365300821</v>
+        <v>0.2708288516073368</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -4587,19 +4587,19 @@
         <v>84332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68743</v>
+        <v>68911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99524</v>
+        <v>99426</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2001330079926139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1631388446806392</v>
+        <v>0.1635358679547914</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2361861818192354</v>
+        <v>0.2359542045122758</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -4608,19 +4608,19 @@
         <v>195066</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>173412</v>
+        <v>172297</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221434</v>
+        <v>221295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2156398719673555</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1917016677223376</v>
+        <v>0.1904690920627464</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2447886022745165</v>
+        <v>0.2446356613028659</v>
       </c>
     </row>
     <row r="13">
@@ -4637,19 +4637,19 @@
         <v>23681</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13638</v>
+        <v>14174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42797</v>
+        <v>40384</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04900647687219437</v>
+        <v>0.04900647687219436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02822364946035652</v>
+        <v>0.02933291794594861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08856827295674718</v>
+        <v>0.08357432030296627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -4658,19 +4658,19 @@
         <v>20363</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12337</v>
+        <v>12874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31703</v>
+        <v>32960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04832374635065111</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02927671152534072</v>
+        <v>0.03055247835514496</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07523716592363534</v>
+        <v>0.07821906655289237</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4679,19 +4679,19 @@
         <v>44043</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30530</v>
+        <v>30634</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63887</v>
+        <v>64708</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04868844512876363</v>
+        <v>0.04868844512876362</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0337495774740783</v>
+        <v>0.03386522371653313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07062503709113914</v>
+        <v>0.07153318099089562</v>
       </c>
     </row>
     <row r="14">
@@ -4708,19 +4708,19 @@
         <v>3296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8735</v>
+        <v>10229</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.006820156708044224</v>
+        <v>0.006820156708044223</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001761514558056627</v>
+        <v>0.001794627970694791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01807651697409985</v>
+        <v>0.02116923763387622</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4745,16 +4745,16 @@
         <v>858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9068</v>
+        <v>9338</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.003643169214607968</v>
+        <v>0.003643169214607967</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0009488051362171584</v>
+        <v>0.0009486024873910866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01002486801838541</v>
+        <v>0.01032297644298817</v>
       </c>
     </row>
     <row r="15">
@@ -4846,19 +4846,19 @@
         <v>115489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97250</v>
+        <v>97682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134709</v>
+        <v>133637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2462728957072187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2073794540964858</v>
+        <v>0.2083017711166014</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.287257458084926</v>
+        <v>0.2849735231298677</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -4867,19 +4867,19 @@
         <v>75647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63700</v>
+        <v>64512</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86107</v>
+        <v>86925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.40345579543541</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.339736688321278</v>
+        <v>0.3440696521361678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4592461278763511</v>
+        <v>0.4636072459470904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -4888,19 +4888,19 @@
         <v>191136</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167921</v>
+        <v>167969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212267</v>
+        <v>214735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2911683762217055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2558046561741578</v>
+        <v>0.255877320989405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3233595531336266</v>
+        <v>0.3271190236959384</v>
       </c>
     </row>
     <row r="17">
@@ -4917,19 +4917,19 @@
         <v>195988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173130</v>
+        <v>174187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>218258</v>
+        <v>221563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4179325547111147</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3691890303548292</v>
+        <v>0.3714436285766002</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.465421543447009</v>
+        <v>0.4724688439214592</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -4938,19 +4938,19 @@
         <v>74311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63953</v>
+        <v>64192</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86453</v>
+        <v>86052</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3963342522131838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3410896419395996</v>
+        <v>0.3423624175947749</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4610904107734785</v>
+        <v>0.4589524379846479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>316</v>
@@ -4959,19 +4959,19 @@
         <v>270300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>246826</v>
+        <v>243811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296732</v>
+        <v>294171</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4117635237884212</v>
+        <v>0.4117635237884211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3760051590978622</v>
+        <v>0.3714123973832977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4520298494658162</v>
+        <v>0.4481281895892711</v>
       </c>
     </row>
     <row r="18">
@@ -4988,19 +4988,19 @@
         <v>123667</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104271</v>
+        <v>103724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>146817</v>
+        <v>145088</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2637121058898452</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2223515293969505</v>
+        <v>0.2211855150269587</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3130775408028547</v>
+        <v>0.3093908045647875</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -5009,19 +5009,19 @@
         <v>33195</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25329</v>
+        <v>23869</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42816</v>
+        <v>44061</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1770424218234835</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1350896194041039</v>
+        <v>0.12730179696396</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2283547056562527</v>
+        <v>0.2349947444905696</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>162</v>
@@ -5030,19 +5030,19 @@
         <v>156862</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134490</v>
+        <v>135187</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179472</v>
+        <v>179531</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.238957014089613</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2048768873818214</v>
+        <v>0.2059383736939114</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2734007543202847</v>
+        <v>0.2734898878797999</v>
       </c>
     </row>
     <row r="19">
@@ -5059,19 +5059,19 @@
         <v>26650</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17119</v>
+        <v>16833</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42585</v>
+        <v>42888</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05683014318453898</v>
+        <v>0.05683014318453899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03650416884674931</v>
+        <v>0.03589434483260343</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09080953583713845</v>
+        <v>0.09145548462398906</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -5080,19 +5080,19 @@
         <v>3538</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1331</v>
+        <v>1293</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7816</v>
+        <v>7780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01886844536153245</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007099955717777407</v>
+        <v>0.006893469091504671</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04168575550979122</v>
+        <v>0.04149161435388741</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5101,19 +5101,19 @@
         <v>30188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18827</v>
+        <v>20040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46703</v>
+        <v>45088</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04598730552308342</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02867981874060423</v>
+        <v>0.03052813263778847</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07114469448569541</v>
+        <v>0.06868479114263359</v>
       </c>
     </row>
     <row r="20">
@@ -5130,19 +5130,19 @@
         <v>7153</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3056</v>
+        <v>2884</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14778</v>
+        <v>13839</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01525230050728246</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006516502329236594</v>
+        <v>0.006149282879782579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03151212317657053</v>
+        <v>0.02950988947379379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3896</v>
+        <v>4611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004299085166390107</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02077800691176973</v>
+        <v>0.02459125233486534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -5172,19 +5172,19 @@
         <v>7959</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3426</v>
+        <v>3721</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15896</v>
+        <v>15862</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0121237803771769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005219184703992597</v>
+        <v>0.005668283963171576</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02421580844303467</v>
+        <v>0.02416314268279689</v>
       </c>
     </row>
     <row r="21">
@@ -5276,19 +5276,19 @@
         <v>315076</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>289455</v>
+        <v>285964</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>344636</v>
+        <v>345114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2783744871284919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2557379266579775</v>
+        <v>0.2526535279405924</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3044906553372724</v>
+        <v>0.30491360726621</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>422</v>
@@ -5297,19 +5297,19 @@
         <v>259748</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>239417</v>
+        <v>236713</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>283359</v>
+        <v>281020</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3025604182226148</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.278878774400728</v>
+        <v>0.2757286684323935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3300641872015493</v>
+        <v>0.3273387222686706</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>807</v>
@@ -5318,19 +5318,19 @@
         <v>574824</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>537695</v>
+        <v>539756</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>611537</v>
+        <v>614173</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2888066554868819</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2701519756109123</v>
+        <v>0.2711874959067623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3072525820575441</v>
+        <v>0.3085767138018387</v>
       </c>
     </row>
     <row r="23">
@@ -5347,19 +5347,19 @@
         <v>407157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>370638</v>
+        <v>375322</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>438480</v>
+        <v>436611</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3597289210757343</v>
+        <v>0.3597289210757342</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3274637101822957</v>
+        <v>0.331602465346628</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3874036972879156</v>
+        <v>0.385752336987832</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>509</v>
@@ -5368,19 +5368,19 @@
         <v>351961</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>328214</v>
+        <v>328573</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>376912</v>
+        <v>378235</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4099730167358083</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3823116145831754</v>
+        <v>0.3827305640303409</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4390361866252215</v>
+        <v>0.4405778983454492</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>914</v>
@@ -5389,19 +5389,19 @@
         <v>759118</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>717124</v>
+        <v>716334</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>806374</v>
+        <v>805310</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3814008121805723</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3603018901871451</v>
+        <v>0.3599049705562503</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4051435726335313</v>
+        <v>0.4046089885272688</v>
       </c>
     </row>
     <row r="24">
@@ -5418,19 +5418,19 @@
         <v>310144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>277093</v>
+        <v>274654</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>348639</v>
+        <v>344192</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2740166268955513</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2448160216750456</v>
+        <v>0.2426611852119498</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3080277828711946</v>
+        <v>0.3040988039265317</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>253</v>
@@ -5439,19 +5439,19 @@
         <v>208554</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>183770</v>
+        <v>186059</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>232245</v>
+        <v>231061</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2429291518283521</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2140598851699587</v>
+        <v>0.2167260804451519</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2705245821812546</v>
+        <v>0.2691460441755605</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>504</v>
@@ -5460,19 +5460,19 @@
         <v>518698</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>472395</v>
+        <v>477302</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>558843</v>
+        <v>561269</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2606076011079486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2373435073694713</v>
+        <v>0.2398093841817093</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2807773642321252</v>
+        <v>0.2819962648722675</v>
       </c>
     </row>
     <row r="25">
@@ -5489,19 +5489,19 @@
         <v>87703</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67763</v>
+        <v>68218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111172</v>
+        <v>115397</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07748687233572372</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.059870036899934</v>
+        <v>0.06027159103095647</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09822222399823111</v>
+        <v>0.1019550265117287</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -5510,19 +5510,19 @@
         <v>36117</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25197</v>
+        <v>25660</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49131</v>
+        <v>49861</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04206946805687537</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02934987654486082</v>
+        <v>0.02988991511120668</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05722931033387343</v>
+        <v>0.05807976464858566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -5531,19 +5531,19 @@
         <v>123820</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101211</v>
+        <v>100478</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150690</v>
+        <v>149785</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06221020910468138</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05085118843508298</v>
+        <v>0.05048267792777766</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07571061322017483</v>
+        <v>0.07525601267157207</v>
       </c>
     </row>
     <row r="26">
@@ -5560,19 +5560,19 @@
         <v>11763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5354</v>
+        <v>5461</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25447</v>
+        <v>22968</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01039309256449886</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004730395863674995</v>
+        <v>0.004824484960072966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02248274643277479</v>
+        <v>0.02029297060564857</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5581,19 +5581,19 @@
         <v>2119</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5892</v>
+        <v>6073</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.002467945156349505</v>
+        <v>0.002467945156349506</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.000739138115181337</v>
+        <v>0.0007329977762870357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006862603897811484</v>
+        <v>0.00707394241781475</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -5602,19 +5602,19 @@
         <v>13882</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7049</v>
+        <v>6963</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24825</v>
+        <v>25579</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.006974722119915774</v>
+        <v>0.006974722119915773</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003541601410365644</v>
+        <v>0.003498639488025547</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01247278020960113</v>
+        <v>0.01285148875587715</v>
       </c>
     </row>
     <row r="27">
@@ -5706,19 +5706,19 @@
         <v>137860</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>118268</v>
+        <v>118395</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>158470</v>
+        <v>160772</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2433339714429338</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2087516788857823</v>
+        <v>0.2089756525116791</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2797119777978042</v>
+        <v>0.2837749718869392</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>543</v>
@@ -5727,19 +5727,19 @@
         <v>305578</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>285342</v>
+        <v>284144</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>328273</v>
+        <v>329268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3683186138967057</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3439278668786532</v>
+        <v>0.3424838631840758</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3956731874193666</v>
+        <v>0.3968727193549539</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>707</v>
@@ -5748,19 +5748,19 @@
         <v>443438</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>413581</v>
+        <v>414209</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>473601</v>
+        <v>477150</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3176027525440387</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2962182661793096</v>
+        <v>0.2966681932199409</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3392064438020128</v>
+        <v>0.3417484300241034</v>
       </c>
     </row>
     <row r="29">
@@ -5777,19 +5777,19 @@
         <v>220826</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>195487</v>
+        <v>196154</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>246082</v>
+        <v>246284</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3897750625301804</v>
+        <v>0.3897750625301805</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3450492804391125</v>
+        <v>0.3462278800013773</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.43435340518385</v>
+        <v>0.4347113635816061</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>437</v>
@@ -5798,19 +5798,19 @@
         <v>292465</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>269938</v>
+        <v>269134</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>316089</v>
+        <v>317189</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3525137669317657</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3253612626734967</v>
+        <v>0.3243918313545469</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3809875172154414</v>
+        <v>0.3823136916602127</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>646</v>
@@ -5819,19 +5819,19 @@
         <v>513291</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>480763</v>
+        <v>479236</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>548862</v>
+        <v>548880</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3676335341630789</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3443358052124728</v>
+        <v>0.343242562241852</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3931102651696095</v>
+        <v>0.393123363891276</v>
       </c>
     </row>
     <row r="30">
@@ -5848,19 +5848,19 @@
         <v>168427</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>145630</v>
+        <v>142643</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>194687</v>
+        <v>192021</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2972876022306597</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2570478834663548</v>
+        <v>0.2517760821379286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3436378366311384</v>
+        <v>0.3389322654947858</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -5869,19 +5869,19 @@
         <v>205206</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>182812</v>
+        <v>181349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>226701</v>
+        <v>225315</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2473387080390251</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2203468477838901</v>
+        <v>0.2185829824459322</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.273247036381597</v>
+        <v>0.271576099920062</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>412</v>
@@ -5890,19 +5890,19 @@
         <v>373633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>335817</v>
+        <v>339839</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>406074</v>
+        <v>406570</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2676068077255841</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2405219156317341</v>
+        <v>0.2434020234832348</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2908418128657422</v>
+        <v>0.2911968162974216</v>
       </c>
     </row>
     <row r="31">
@@ -5919,19 +5919,19 @@
         <v>34906</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23961</v>
+        <v>24395</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48668</v>
+        <v>50498</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06161159550832438</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04229358229519022</v>
+        <v>0.04305836513961889</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08590250502364828</v>
+        <v>0.08913287294018504</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -5940,19 +5940,19 @@
         <v>23663</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16286</v>
+        <v>16054</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>32833</v>
+        <v>33232</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.02852122789659076</v>
+        <v>0.02852122789659075</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01962972468555449</v>
+        <v>0.01935059296970401</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03957413242722482</v>
+        <v>0.04005547962875591</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>61</v>
@@ -5961,19 +5961,19 @@
         <v>58569</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>45314</v>
+        <v>44886</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75817</v>
+        <v>75943</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04194852954708099</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03245502342357333</v>
+        <v>0.03214869869532423</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05430262606471976</v>
+        <v>0.05439275052951439</v>
       </c>
     </row>
     <row r="32">
@@ -5990,19 +5990,19 @@
         <v>4528</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13596</v>
+        <v>13266</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007991768287901659</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001974684081035154</v>
+        <v>0.001961005772024709</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02399817657766007</v>
+        <v>0.02341575893061287</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -6011,19 +6011,19 @@
         <v>2744</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>670</v>
+        <v>875</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6983</v>
+        <v>6891</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.003307683235912632</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0008079281115818735</v>
+        <v>0.001055103354181308</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008416458999121941</v>
+        <v>0.00830547639854118</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -6032,19 +6032,19 @@
         <v>7272</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3183</v>
+        <v>2609</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16370</v>
+        <v>15206</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.005208376020217238</v>
+        <v>0.005208376020217237</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00227993336617656</v>
+        <v>0.001868966200366458</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01172472478531034</v>
+        <v>0.01089074981084482</v>
       </c>
     </row>
     <row r="33">
@@ -6136,19 +6136,19 @@
         <v>22661</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>12237</v>
+        <v>12558</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>40519</v>
+        <v>41130</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.0955230116737045</v>
+        <v>0.09552301167370449</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05158362019691797</v>
+        <v>0.05293609662787258</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1708023743775171</v>
+        <v>0.1733791910391492</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>523</v>
@@ -6157,19 +6157,19 @@
         <v>312301</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>288386</v>
+        <v>288027</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>337331</v>
+        <v>337803</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3708051163612333</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3424092561167081</v>
+        <v>0.3419832174722854</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4005238774222845</v>
+        <v>0.4010835977345517</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>537</v>
@@ -6178,19 +6178,19 @@
         <v>334962</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>305832</v>
+        <v>307202</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>363401</v>
+        <v>365500</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3103073132796117</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2833212814176898</v>
+        <v>0.2845908422816105</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3366526828622877</v>
+        <v>0.3385978041924857</v>
       </c>
     </row>
     <row r="35">
@@ -6207,19 +6207,19 @@
         <v>65163</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44439</v>
+        <v>45358</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>87779</v>
+        <v>87050</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2746830060082384</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1873241700222219</v>
+        <v>0.1911985085876298</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3700187868834769</v>
+        <v>0.3669464434681715</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>396</v>
@@ -6228,19 +6228,19 @@
         <v>293079</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>266900</v>
+        <v>264810</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>318914</v>
+        <v>319627</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3479815353034484</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3168991757823459</v>
+        <v>0.3144177018843086</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3786564972143013</v>
+        <v>0.3795034343928645</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>430</v>
@@ -6249,19 +6249,19 @@
         <v>358241</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>326733</v>
+        <v>322583</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>395474</v>
+        <v>395889</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3318729691599733</v>
+        <v>0.3318729691599734</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3026840660855254</v>
+        <v>0.2988391091125878</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3663649822226451</v>
+        <v>0.3667497074140945</v>
       </c>
     </row>
     <row r="36">
@@ -6278,19 +6278,19 @@
         <v>121633</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>95679</v>
+        <v>98627</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>143470</v>
+        <v>147317</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.51272724443077</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4033228970976673</v>
+        <v>0.4157484634706836</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6047781596426045</v>
+        <v>0.6209939098435091</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>203</v>
@@ -6299,19 +6299,19 @@
         <v>198876</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>171833</v>
+        <v>172852</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>224840</v>
+        <v>226723</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2361321332451728</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2040223915140094</v>
+        <v>0.2052327318781276</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2669591306228571</v>
+        <v>0.2691948660862887</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>255</v>
@@ -6320,19 +6320,19 @@
         <v>320510</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>280606</v>
+        <v>282071</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>359426</v>
+        <v>358690</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2969184912572181</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2599518698757858</v>
+        <v>0.2613088486245517</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3329708526181072</v>
+        <v>0.3322883977521537</v>
       </c>
     </row>
     <row r="37">
@@ -6349,19 +6349,19 @@
         <v>24162</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12475</v>
+        <v>12308</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42071</v>
+        <v>43743</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.101852238568685</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0525846786190213</v>
+        <v>0.05188183434220393</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1773455907785196</v>
+        <v>0.1843915966699483</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -6370,19 +6370,19 @@
         <v>35893</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24352</v>
+        <v>24794</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52676</v>
+        <v>52879</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04261696088848339</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02891379569672358</v>
+        <v>0.02943878256575544</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06254383164582404</v>
+        <v>0.06278449897382031</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>44</v>
@@ -6391,19 +6391,19 @@
         <v>60055</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42374</v>
+        <v>43695</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>81640</v>
+        <v>84727</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05563489450479941</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03925474503342233</v>
+        <v>0.04047869230078208</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07563095885193236</v>
+        <v>0.07849062392433277</v>
       </c>
     </row>
     <row r="38">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>12899</v>
+        <v>13059</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01521449931860207</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0543745882371033</v>
+        <v>0.05505027811591981</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11778</v>
+        <v>11849</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.002464254201662175</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01398392599906799</v>
+        <v>0.01406900729835755</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -6462,19 +6462,19 @@
         <v>5685</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16671</v>
+        <v>15585</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005266331798397366</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.001007085869120501</v>
+        <v>0.00100969961600979</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01544402076215774</v>
+        <v>0.01443746705269455</v>
       </c>
     </row>
     <row r="39">
@@ -6566,19 +6566,19 @@
         <v>901673</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>845816</v>
+        <v>845288</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>959370</v>
+        <v>955021</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2622365735562772</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2459916429102156</v>
+        <v>0.245837938267359</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2790168118408506</v>
+        <v>0.2777521955418414</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2069</v>
@@ -6587,19 +6587,19 @@
         <v>1250434</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1198832</v>
+        <v>1199222</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1299365</v>
+        <v>1295902</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3448432741894407</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3306124606276719</v>
+        <v>0.3307200720497424</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3583374809277292</v>
+        <v>0.3573823161033769</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3124</v>
@@ -6608,19 +6608,19 @@
         <v>2152106</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2081913</v>
+        <v>2082948</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2222497</v>
+        <v>2222681</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.304637328379699</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2947011589180997</v>
+        <v>0.294847666066002</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.314601345208753</v>
+        <v>0.3146274299822219</v>
       </c>
     </row>
     <row r="41">
@@ -6637,19 +6637,19 @@
         <v>1339209</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1279186</v>
+        <v>1275078</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1408529</v>
+        <v>1404995</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3894869226679359</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3720301996405393</v>
+        <v>0.3708353756632419</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4096474455026235</v>
+        <v>0.4086195432194986</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2025</v>
@@ -6658,19 +6658,19 @@
         <v>1422862</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1370175</v>
+        <v>1368271</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1476649</v>
+        <v>1475106</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3923952998988024</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3778654829087862</v>
+        <v>0.3773401592038472</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4072286283374353</v>
+        <v>0.4068030143750911</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3305</v>
@@ -6679,19 +6679,19 @@
         <v>2762071</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2668675</v>
+        <v>2681555</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2835891</v>
+        <v>2843798</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3909797481766996</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3777592014979202</v>
+        <v>0.3795823709242069</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.401429207680324</v>
+        <v>0.4025484434553129</v>
       </c>
     </row>
     <row r="42">
@@ -6708,19 +6708,19 @@
         <v>941565</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>876923</v>
+        <v>876994</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>997506</v>
+        <v>1005609</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2738384948553608</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2550384962562455</v>
+        <v>0.2550591147275355</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.290108175987609</v>
+        <v>0.2924646375537169</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>983</v>
@@ -6729,19 +6729,19 @@
         <v>813517</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>767028</v>
+        <v>764710</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>868586</v>
+        <v>868858</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.224350711484617</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2115301796536117</v>
+        <v>0.2108908442175236</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2395377452145892</v>
+        <v>0.2396125963154288</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1750</v>
@@ -6750,19 +6750,19 @@
         <v>1755081</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1681251</v>
+        <v>1679313</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1838635</v>
+        <v>1837379</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2484371732510074</v>
+        <v>0.2484371732510075</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.237986349220749</v>
+        <v>0.2377119935346108</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2602644792091304</v>
+        <v>0.2600867515422222</v>
       </c>
     </row>
     <row r="43">
@@ -6779,19 +6779,19 @@
         <v>222147</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>189034</v>
+        <v>187938</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>260801</v>
+        <v>258391</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.06460773922051399</v>
+        <v>0.06460773922051398</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05497752370901959</v>
+        <v>0.05465862954275286</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07584975362150535</v>
+        <v>0.07514877165607568</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>142</v>
@@ -6800,19 +6800,19 @@
         <v>129056</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>109700</v>
+        <v>108341</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>155794</v>
+        <v>151896</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03559099582170593</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03025293149436285</v>
+        <v>0.02987826567034329</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04296470422283665</v>
+        <v>0.04188958001256928</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>309</v>
@@ -6821,19 +6821,19 @@
         <v>351203</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>309485</v>
+        <v>312870</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>399260</v>
+        <v>396149</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04971388904617263</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04380852846910318</v>
+        <v>0.04428777642044236</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05651651018107364</v>
+        <v>0.05607615073172486</v>
       </c>
     </row>
     <row r="44">
@@ -6850,19 +6850,19 @@
         <v>33800</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>22752</v>
+        <v>22276</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>51970</v>
+        <v>50616</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.009830269699912179</v>
+        <v>0.009830269699912178</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006617173287394243</v>
+        <v>0.006478512895470588</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01511467345517667</v>
+        <v>0.01472082724712049</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -6871,19 +6871,19 @@
         <v>10225</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5505</v>
+        <v>5002</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17927</v>
+        <v>18544</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.002819718605433993</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001518192218255051</v>
+        <v>0.001379453039844853</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.004943763517053256</v>
+        <v>0.00511412818378359</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>38</v>
@@ -6892,19 +6892,19 @@
         <v>44025</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>31648</v>
+        <v>31991</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>61963</v>
+        <v>60907</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.00623186114642123</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004479877200577589</v>
+        <v>0.004528466169624803</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008771024993450883</v>
+        <v>0.008621574403214829</v>
       </c>
     </row>
     <row r="45">
